--- a/biology/Médecine/Henri_Fonzes-Diacon/Henri_Fonzes-Diacon.xlsx
+++ b/biology/Médecine/Henri_Fonzes-Diacon/Henri_Fonzes-Diacon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Henri Léon Gabriel Fonzes-Diacon, né le 11 avril 1868 à Montpellier et mort le 27 juillet 1935, est un pharmacien et universitaire français. Il est doyen de la faculté de pharmacie de Montpellier à partir de 1928.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Fonzes naît en 1868 à Montpellier[1]. Son père meurt en 1871 alors qu'il a trois ans, et il est élevé avec ses deux frères par leur mère, Marie Deidier[2]. Il fait ses études au lycée de Montpellier, puis à l'école supérieure de pharmacie de la même ville. Il est préparateur en pharmacie, lauréat des concours de 1889 à 1892 et soutient en 1893 sa thèse[2]. Il obtient en 1895 par décision de justice le droit d'ajouter à son nom de famille Diacon, nom légué par Jules-Émile Diacon, directeur de l'école de pharmacie[2]. Il est chef de travaux en chimie, pharmacie et toxicologie de 1894 à 1899[2]. Il obtient une licence de sciences physiques et un doctorat en médecine en 1897, puis il réussit l'agrégation de physique, chimie et toxicologie en 1899[2]. Il obtient un doctorat ès sciences à Paris en 1901[1].
-Il est nommé professeur de chimie minérale à la faculté de Montpellier en 1903[1] et professeur à l'école supérieure de commerce en 1904[2]. Il est élu doyen de la faculté de pharmacie en 1928, puis réélu en 1931 et 1934[2].
-Il est élu membre de l'Académie des sciences et lettres de Montpellier en 1902[3].
-Il meurt le 27 juillet 1935 à 66 ans et est inhumé au cimetière protestant de Montpellier[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Fonzes naît en 1868 à Montpellier. Son père meurt en 1871 alors qu'il a trois ans, et il est élevé avec ses deux frères par leur mère, Marie Deidier. Il fait ses études au lycée de Montpellier, puis à l'école supérieure de pharmacie de la même ville. Il est préparateur en pharmacie, lauréat des concours de 1889 à 1892 et soutient en 1893 sa thèse. Il obtient en 1895 par décision de justice le droit d'ajouter à son nom de famille Diacon, nom légué par Jules-Émile Diacon, directeur de l'école de pharmacie. Il est chef de travaux en chimie, pharmacie et toxicologie de 1894 à 1899. Il obtient une licence de sciences physiques et un doctorat en médecine en 1897, puis il réussit l'agrégation de physique, chimie et toxicologie en 1899. Il obtient un doctorat ès sciences à Paris en 1901.
+Il est nommé professeur de chimie minérale à la faculté de Montpellier en 1903 et professeur à l'école supérieure de commerce en 1904. Il est élu doyen de la faculté de pharmacie en 1928, puis réélu en 1931 et 1934.
+Il est élu membre de l'Académie des sciences et lettres de Montpellier en 1902.
+Il meurt le 27 juillet 1935 à 66 ans et est inhumé au cimetière protestant de Montpellier.
 </t>
         </is>
       </c>
